--- a/Statystyki_2018/Template/aktg.xlsx
+++ b/Statystyki_2018/Template/aktg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="arkusz1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="arkusz1 -1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Arkusz2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t xml:space="preserve">Lp.</t>
   </si>
@@ -308,26 +308,26 @@
   </sheetPr>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="9.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="9.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="4.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="4.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="4.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="4.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="4.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="4.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="4.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="5.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="5.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="4.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="3.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="4.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="4.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="4.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="3.69"/>
   </cols>
@@ -454,11 +454,11 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
@@ -481,10 +481,12 @@
       <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
@@ -497,7 +499,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="10"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -511,7 +513,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="10"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -525,7 +527,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -539,7 +541,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="10"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -555,7 +557,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -569,7 +571,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -583,7 +585,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="10"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -597,7 +599,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -611,7 +613,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="10"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -625,7 +627,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="10"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -639,36 +641,24 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="10"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="13">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="I2:J2"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I3:J3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
